--- a/data/trans_dic/P24_1_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P24_1_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con problemas de sueño con bastante o mucha frecuencia</t>
+          <t>Población con problemas de sueño con bastante o mucha frecuencia (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -685,72 +734,102 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>25,29%</t>
+          <t>25,17%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>21,17%</t>
+          <t>20,8%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>16,9%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>26,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>28,58%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>33,52%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>34,71%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>35,13%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>31,72%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>31,66%</t>
+          <t>35,37%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>32,05%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>32,1%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>35,54%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>43,49%</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>47,1%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>28,88%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>30,42%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>26,73%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>24,61%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>30,49%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>26,72%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>24,89%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>31,0%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
         <is>
           <t>36,16%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>40,44%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,41; 26,4</t>
+          <t>19,08; 26,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,82; 29,6</t>
+          <t>21,65; 29,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,0; 24,52</t>
+          <t>17,89; 24,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,89; 19,8</t>
+          <t>13,93; 20,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>25,23; 32,29</t>
+          <t>21,76; 35,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>31,43; 38,0</t>
+          <t>25,42; 32,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>31,78; 38,79</t>
+          <t>29,78; 37,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>28,34; 35,04</t>
+          <t>31,25; 38,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>27,81; 35,05</t>
+          <t>32,0; 39,08</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>39,82; 47,28</t>
+          <t>28,92; 35,47</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>26,53; 31,32</t>
+          <t>29,03; 35,48</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>27,9; 33,28</t>
+          <t>31,57; 39,43</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>24,36; 29,05</t>
+          <t>39,94; 47,05</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>22,36; 27,04</t>
+          <t>43,36; 50,51</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>33,53; 38,77</t>
+          <t>26,55; 31,32</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>28,02; 33,61</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>24,39; 28,98</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>22,85; 27,36</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>27,95; 35,33</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>33,64; 38,84</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>37,8; 43,09</t>
         </is>
       </c>
     </row>
@@ -855,72 +964,102 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>21,59%</t>
+          <t>22,02%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>21,19%</t>
+          <t>21,55%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,52%</t>
+          <t>20,64%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>24,06%</t>
+          <t>27,21%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>24,05%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>30,19%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>31,73%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>29,83%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>28,38%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>30,57%</t>
+          <t>30,66%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>28,7%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>31,09%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>37,99%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
           <t>38,57%</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr">
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>39,24%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>24,81%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>25,73%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>24,78%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>25,55%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>26,37%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>25,12%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>25,87%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>32,63%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
         <is>
           <t>30,9%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>34,52%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,71; 22,81</t>
+          <t>14,11; 21,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,55; 27,15</t>
+          <t>17,99; 27,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,76; 24,89</t>
+          <t>17,83; 25,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,01; 25,44</t>
+          <t>16,97; 24,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,69; 30,22</t>
+          <t>22,59; 32,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,31; 35,56</t>
+          <t>18,41; 30,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,82; 34,36</t>
+          <t>24,21; 36,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24,82; 32,07</t>
+          <t>28,05; 35,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,95; 34,59</t>
+          <t>26,48; 35,09</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>31,99; 45,4</t>
+          <t>24,89; 32,41</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>22,34; 27,78</t>
+          <t>27,41; 35,34</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>22,91; 28,94</t>
+          <t>32,73; 42,81</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>22,18; 27,44</t>
+          <t>32,44; 44,92</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>22,87; 28,59</t>
+          <t>32,78; 45,99</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>26,52; 35,02</t>
+          <t>22,09; 27,47</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>23,42; 29,66</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>22,43; 27,91</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>23,37; 29,11</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>29,29; 36,0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>26,35; 34,89</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>30,23; 38,97</t>
         </is>
       </c>
     </row>
@@ -1025,70 +1194,100 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>25,92%</t>
+          <t>26,81%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>21,47%</t>
+          <t>21,95%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>17,51%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>28,26%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>35,4%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>27,69%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>29,89%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>29,21%</t>
+          <t>28,09%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>30,67%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>28,98%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>36,86%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>26,89%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>26,79%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>25,6%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>23,1%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>27,44%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>26,22%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>23,16%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>32,53%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1103,75 +1302,105 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,67; 25,78</t>
+          <t>12,21; 26,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,2; 38,07</t>
+          <t>18,25; 40,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,09; 28,9</t>
+          <t>15,77; 29,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,59; 24,11</t>
+          <t>12,03; 24,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>18,67; 44,23</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>28,58; 42,4</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,9; 35,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,7; 37,08</t>
+          <t>28,69; 42,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,47; 36,64</t>
+          <t>21,73; 35,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
+          <t>24,48; 38,02</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>22,58; 36,11</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>27,43; 45,62</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>21,61; 31,89</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>21,0; 34,28</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>20,79; 30,79</t>
-        </is>
-      </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>18,81; 28,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>21,23; 31,46</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>22,15; 35,55</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>21,7; 31,5</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>18,76; 28,37</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>26,12; 41,56</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1195,72 +1424,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>23,89%</t>
+          <t>24,12%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,21%</t>
+          <t>21,24%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>18,47%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>26,76%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>27,5%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>32,71%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>33,63%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>32,23%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>30,24%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>30,96%</t>
+          <t>32,72%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>30,61%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>31,36%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>36,63%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
           <t>42,44%</t>
         </is>
       </c>
-      <c r="M10" s="2" t="inlineStr">
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>45,36%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>27,03%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>28,16%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>25,83%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>24,8%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>28,51%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>26,04%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>25,07%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>31,82%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
         <is>
           <t>34,97%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>39,07%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,1738 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,95; 22,77</t>
+          <t>17,9; 22,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,05; 26,94</t>
+          <t>21,28; 27,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,02; 23,62</t>
+          <t>19,04; 23,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,16; 20,87</t>
+          <t>16,47; 21,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,5; 30,41</t>
+          <t>23,43; 31,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,26; 35,97</t>
+          <t>24,43; 30,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,45; 34,81</t>
+          <t>29,47; 36,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>28,04; 32,63</t>
+          <t>31,31; 36,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>28,71; 33,4</t>
+          <t>30,18; 35,52</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>39,42; 45,61</t>
+          <t>28,26; 32,94</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>25,33; 28,82</t>
+          <t>28,9; 33,7</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,23; 30,27</t>
+          <t>33,68; 39,54</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>24,09; 27,55</t>
+          <t>39,33; 45,69</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>23,04; 26,47</t>
+          <t>42,23; 48,43</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>32,78; 37,34</t>
+          <t>25,31; 28,87</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>26,65; 30,64</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>24,35; 27,59</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>23,32; 26,56</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>29,47; 34,09</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>32,58; 37,08</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>36,83; 41,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con problemas de sueño con bastante o mucha frecuencia (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>204.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>224.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>275.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>277.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>287.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>378.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>418.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>421.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>385.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>427.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>410.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>354.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>582.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>642.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>369176</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>415962</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>340407</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>276532</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>426060</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>65591</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>76047</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>621611</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>637941</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>583632</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>581868</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>641891</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>103248</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>111281</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>990787</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>1053904</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>924040</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>858400</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>1067950</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>168839</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>187328</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>312873; 430179</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>357829; 487180</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>292768; 395986</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>228017; 333209</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>356628; 585010</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>58328; 74054</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>67577; 84708</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>559727; 681589</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>577102; 704814</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>526718; 645994</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>526194; 642966</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>570178; 712200</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>94818; 111703</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>102448; 119340</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>910962; 1074674</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>968449; 1161669</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>843207; 1002102</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>788106; 943608</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>962746; 1216990</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>157055; 181322</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>175068; 199591</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>202.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>292.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>304.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>315.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>301.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>246458</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>302618</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>297205</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>284259</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>375642</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>17388</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>22019</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>447385</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>426559</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>394390</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>428901</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>529760</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>24894</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>26256</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>693843</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>729178</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>691594</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>713161</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>905402</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>42282</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>48275</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>195623; 303629</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>247167; 378171</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>245908; 349512</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>233751; 342586</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>311923; 450929</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>13306; 21961</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>17657; 26489</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>395484; 505008</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>368510; 488324</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>342062; 445339</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>378151; 487667</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>456470; 596960</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>20937; 28992</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>21936; 30777</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>617649; 768241</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>647739; 820140</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>617500; 768395</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>644272; 802739</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>812773; 999029</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>36055; 47747</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>42284; 54500</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>78639</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>113339</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>92791</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>74018</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>117816</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>145820</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>115714</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>124822</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>118795</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>151813</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>224459</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>229053</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>217612</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>192814</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>269629</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>51611; 110882</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>77152; 170364</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>66662; 125529</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>50875; 102835</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>77855; 184387</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>118173; 176715</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>89510; 146312</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>99629; 154751</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>92568; 147993</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>112997; 187890</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>177194; 262570</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>184851; 296738</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>180072; 261414</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>156236; 236204</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>216492; 344467</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>265.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>266.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>304.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>263.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>264.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>303.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>537.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>442.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>515.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>544.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>463.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>472.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>508.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>802.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>708.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>819.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>807.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>730.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>736.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>811.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>694273</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>831919</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>730403</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>634810</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>919517</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>82979</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>98066</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1214817</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1180215</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1102843</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1129564</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1323464</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>128142</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>137537</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1909090</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>2012134</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>1833246</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>1764375</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>2242981</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>211121</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>235603</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>617312; 781011</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>733892; 955249</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>654794; 822886</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>566202; 723832</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>805229; 1087293</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>73732; 91750</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>88361; 108765</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1131221; 1306226</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1088734; 1281334</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1018169; 1186711</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1040947; 1213922</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1216814; 1428462</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>118763; 137959</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>128045; 146839</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1787455; 2038659</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1880464; 2161849</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>1714456; 1942340</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>1641450; 1869291</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>2077284; 2403221</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>196667; 223874</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>222126; 249896</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
